--- a/data/trans_bre/P25A_5_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_5_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -561,37 +569,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1</t>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,32</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>227,97%</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>1,92</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>187,75%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>112,2%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>81,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-32,16%</t>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-54,81%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-15,4%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,40 +720,60 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 7,81</t>
+          <t>-0,72; 6,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,55</t>
+          <t>-1,14; 4,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 4,11</t>
+          <t>0,43; 4,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,7; 29,6</t>
+          <t>-6,76; 1,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-59,24; —</t>
+          <t>-7,46; 4,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>0,46; 5,37</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-63,63; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-78,2; 257,23</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -725,37 +797,57 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,47</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,45%</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,99%</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>-13,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>81,22%</t>
+          <t>15,6%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-5,7%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>284,5%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10,18%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>129,35%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 2,83</t>
+          <t>-3,66; 2,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,81</t>
+          <t>-3,25; 3,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 2,84</t>
+          <t>-2,81; 2,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,8; 47,03</t>
+          <t>-0,43; 6,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-91,15; 413,84</t>
+          <t>-4,72; 5,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,35; 305,28</t>
+          <t>-1,5; 8,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-77,96; 330,45</t>
+          <t>-100,0; 286,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
+          <t>-77,27; 334,42</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-76,27; 308,39</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-75,37; 354,02</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-40,96; 1090,25</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,74</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,96%</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>131,83%</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-20,08%</t>
+          <t>75,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-17,28%</t>
+          <t>-20,13%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>129,76%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-24,87%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>114,94%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>218,21%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,49</t>
+          <t>-1,07; 2,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 3,22</t>
+          <t>-2,51; 2,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,88</t>
+          <t>-0,64; 3,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,96; 28,1</t>
+          <t>-3,61; 1,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-1,24; 6,03</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 7,44</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-63,91; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-79,72; 215,23</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-74,4; 191,8</t>
+          <t>-77,17; 271,27</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-72,16; 1170,61</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-80,76; 273,76</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-42,81; 914,29</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 1294,96</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>45,31%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>74,0%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-13,1%</t>
+          <t>90,86%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>40,61%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>73,25%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>118,4%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>448,77%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,19</t>
+          <t>0,81; 4,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,61</t>
+          <t>-0,77; 3,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,37</t>
+          <t>-1,27; 2,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,44; 31,23</t>
+          <t>-1,44; 4,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>-0,62; 5,81</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 7,36</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-63,12; 451,78</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-51,02; 616,81</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,36; 220,35</t>
+          <t>-49,28; 893,48</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-60,97; 366,67</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-63,58; 696,9</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-36,49; 893,28</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>46,3; 2065,24</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>3,97</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3,03</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-27,26%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>448,19%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,89%</t>
+          <t>437,7%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-29,55%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>57,07%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>172,57%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>731,53%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,76</t>
+          <t>0,42; 3,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 1,82</t>
+          <t>0,78; 5,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,63</t>
+          <t>-6,26; 1,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-40,3; 37,49</t>
+          <t>-2,14; 5,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>0,04; 8,04</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 6,36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 194,24</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-5,69; —</t>
-        </is>
-      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-55,6; 182,26</t>
+          <t>-7,14; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-97,82; 171,03</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-53,83; 531,23</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-18,02; 948,44</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-29,86</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>371,13%</t>
+          <t>9,71</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-36,65%</t>
+          <t>79,49%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-61,87%</t>
+          <t>-34,14%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>469,05%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-37,94%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>556,73%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>674,05%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 5,57</t>
+          <t>-2,12; 6,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,41; 10,06</t>
+          <t>-4,95; 1,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 1,59</t>
+          <t>2,11; 13,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-89,72; 24,3</t>
+          <t>-4,57; 1,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-80,24; 994,56</t>
+          <t>0,94; 9,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,78; 2077,99</t>
+          <t>3,9; 19,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-89,12; 110,97</t>
+          <t>-70,71; 1044,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-86,14; 178,45</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>45,99; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>18,76; —</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>117,52%</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>87,83%</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>123,11%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-7,86%</t>
+          <t>31,91%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>101,29%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>18,58%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>77,54%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>357,6%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,59</t>
+          <t>0,25; 2,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,6</t>
+          <t>-0,5; 1,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,53</t>
+          <t>0,36; 3,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 12,2</t>
+          <t>-1,02; 1,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,88; 379,59</t>
+          <t>0,46; 3,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 237,43</t>
+          <t>3,01; 7,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-27,26; 109,76</t>
+          <t>6,98; 370,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-41,15; 49,61</t>
+          <t>-20,44; 127,03</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>9,23; 257,46</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-34,08; 116,35</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10,94; 201,07</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>131,23; 789,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
